--- a/results/SUMO/SUMO-anlysis.xlsx
+++ b/results/SUMO/SUMO-anlysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Sat Apr 21 20:09:37 PDT 2012</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Substitution</t>
+  </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY33"/>
+  <dimension ref="A1:BY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AN32" sqref="AN32:AN33"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8780,6 +8786,10 @@
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
+      <c r="BX31" s="3">
+        <f>AVERAGE(BX2:BX29)</f>
+        <v>22.714285714285715</v>
+      </c>
       <c r="BY31">
         <f>AVERAGE(BX2:BX29)/32</f>
         <v>0.7098214285714286</v>
@@ -8790,15 +8800,27 @@
         <f>COUNTIF(D30:AM31,"&lt;5")</f>
         <v>4</v>
       </c>
+      <c r="AM32" t="s">
+        <v>56</v>
+      </c>
       <c r="AN32" s="3">
-        <f>COUNTIF(AN30:CC30,"&gt;=18")</f>
+        <f>COUNTIF(AN30:BW30,"&gt;=18")</f>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="40:40">
+    <row r="33" spans="39:40">
       <c r="AN33" s="3">
-        <f>COUNTIF(AN30:CC30,"&gt;=22")</f>
+        <f>COUNTIF(AN30:BW30,"&gt;=22")</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="39:40">
+      <c r="AM34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN34">
+        <f>COUNTIF(AN30:BW30,"&gt;=19")</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
